--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="8055"/>
+    <workbookView windowWidth="14970" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1147,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -1235,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -1269,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -1286,7 +1286,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -1337,7 +1337,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1354,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -1388,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
